--- a/使用CEADs数据/CEADs_2007-2019_清洗后_修正版.xlsx
+++ b/使用CEADs数据/CEADs_2007-2019_清洗后_修正版.xlsx
@@ -467,7 +467,11 @@
       <c r="C2" t="n">
         <v>102.8899215065175</v>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -481,7 +485,11 @@
       <c r="C3" t="n">
         <v>99.20893921372056</v>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -495,7 +503,11 @@
       <c r="C4" t="n">
         <v>100.3872986559183</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -509,7 +521,11 @@
       <c r="C5" t="n">
         <v>105.0396713131478</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -523,7 +539,11 @@
       <c r="C6" t="n">
         <v>95.31082402190707</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -537,7 +557,11 @@
       <c r="C7" t="n">
         <v>97.99804428143622</v>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -551,7 +575,11 @@
       <c r="C8" t="n">
         <v>94.0709764350172</v>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -565,7 +593,11 @@
       <c r="C9" t="n">
         <v>93.25544946790635</v>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -579,7 +611,11 @@
       <c r="C10" t="n">
         <v>92.7629962471174</v>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -593,7 +629,11 @@
       <c r="C11" t="n">
         <v>89.9818072511361</v>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -607,7 +647,11 @@
       <c r="C12" t="n">
         <v>85.5604844096039</v>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -621,7 +665,11 @@
       <c r="C13" t="n">
         <v>88.40907310188835</v>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -635,7 +683,11 @@
       <c r="C14" t="n">
         <v>88.15542678925796</v>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -649,7 +701,11 @@
       <c r="C15" t="n">
         <v>103.4472740368164</v>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -663,7 +719,11 @@
       <c r="C16" t="n">
         <v>110.2302082053046</v>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -677,7 +737,11 @@
       <c r="C17" t="n">
         <v>122.3469494245648</v>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -691,7 +755,11 @@
       <c r="C18" t="n">
         <v>139.1524999000896</v>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -705,7 +773,11 @@
       <c r="C19" t="n">
         <v>154.2893913013445</v>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -719,7 +791,11 @@
       <c r="C20" t="n">
         <v>160.3253607967552</v>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -733,7 +809,11 @@
       <c r="C21" t="n">
         <v>159.6514738863362</v>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -747,7 +827,11 @@
       <c r="C22" t="n">
         <v>158.1051713043813</v>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -761,7 +845,11 @@
       <c r="C23" t="n">
         <v>154.3530913211559</v>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -775,7 +863,11 @@
       <c r="C24" t="n">
         <v>148.9459323737392</v>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -789,7 +881,11 @@
       <c r="C25" t="n">
         <v>143.9910429620537</v>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -803,7 +899,11 @@
       <c r="C26" t="n">
         <v>154.3368031669895</v>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -817,7 +917,11 @@
       <c r="C27" t="n">
         <v>158.4665347013708</v>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -12549,7 +12653,11 @@
       <c r="C679" t="n">
         <v>174.7746792455938</v>
       </c>
-      <c r="D679" t="inlineStr"/>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -12563,7 +12671,11 @@
       <c r="C680" t="n">
         <v>178.1546103529497</v>
       </c>
-      <c r="D680" t="inlineStr"/>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
@@ -12577,7 +12689,11 @@
       <c r="C681" t="n">
         <v>179.0588244317502</v>
       </c>
-      <c r="D681" t="inlineStr"/>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -12591,7 +12707,11 @@
       <c r="C682" t="n">
         <v>195.5030960203689</v>
       </c>
-      <c r="D682" t="inlineStr"/>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -12605,7 +12725,11 @@
       <c r="C683" t="n">
         <v>201.4947563888085</v>
       </c>
-      <c r="D683" t="inlineStr"/>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -12619,7 +12743,11 @@
       <c r="C684" t="n">
         <v>195.9264595276622</v>
       </c>
-      <c r="D684" t="inlineStr"/>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
@@ -12633,7 +12761,11 @@
       <c r="C685" t="n">
         <v>207.6336928198307</v>
       </c>
-      <c r="D685" t="inlineStr"/>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
@@ -12647,7 +12779,11 @@
       <c r="C686" t="n">
         <v>194.2200151394598</v>
       </c>
-      <c r="D686" t="inlineStr"/>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
@@ -12661,7 +12797,11 @@
       <c r="C687" t="n">
         <v>195.3238483444714</v>
       </c>
-      <c r="D687" t="inlineStr"/>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
@@ -12675,7 +12815,11 @@
       <c r="C688" t="n">
         <v>194.7098509174037</v>
       </c>
-      <c r="D688" t="inlineStr"/>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -12689,7 +12833,11 @@
       <c r="C689" t="n">
         <v>196.1535720283077</v>
       </c>
-      <c r="D689" t="inlineStr"/>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -12703,7 +12851,11 @@
       <c r="C690" t="n">
         <v>190.6416671355691</v>
       </c>
-      <c r="D690" t="inlineStr"/>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -12717,7 +12869,11 @@
       <c r="C691" t="n">
         <v>192.9122403245068</v>
       </c>
-      <c r="D691" t="inlineStr"/>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -44573,7 +44729,11 @@
       <c r="C2461" t="n">
         <v>99.16610001702766</v>
       </c>
-      <c r="D2461" t="inlineStr"/>
+      <c r="D2461" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
     </row>
     <row r="2462">
       <c r="A2462" t="inlineStr">
@@ -44587,7 +44747,11 @@
       <c r="C2462" t="n">
         <v>126.2532299322543</v>
       </c>
-      <c r="D2462" t="inlineStr"/>
+      <c r="D2462" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
     </row>
     <row r="2463">
       <c r="A2463" t="inlineStr">
@@ -44601,7 +44765,11 @@
       <c r="C2463" t="n">
         <v>133.0810866249505</v>
       </c>
-      <c r="D2463" t="inlineStr"/>
+      <c r="D2463" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
     </row>
     <row r="2464">
       <c r="A2464" t="inlineStr">
@@ -44615,7 +44783,11 @@
       <c r="C2464" t="n">
         <v>145.4157212434296</v>
       </c>
-      <c r="D2464" t="inlineStr"/>
+      <c r="D2464" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
     </row>
     <row r="2465">
       <c r="A2465" t="inlineStr">
@@ -44629,7 +44801,11 @@
       <c r="C2465" t="n">
         <v>166.60566809364</v>
       </c>
-      <c r="D2465" t="inlineStr"/>
+      <c r="D2465" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
     </row>
     <row r="2466">
       <c r="A2466" t="inlineStr">
@@ -44643,7 +44819,11 @@
       <c r="C2466" t="n">
         <v>171.6458367097329</v>
       </c>
-      <c r="D2466" t="inlineStr"/>
+      <c r="D2466" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
     </row>
     <row r="2467">
       <c r="A2467" t="inlineStr">
@@ -44657,7 +44837,11 @@
       <c r="C2467" t="n">
         <v>149.1216018316582</v>
       </c>
-      <c r="D2467" t="inlineStr"/>
+      <c r="D2467" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
     </row>
     <row r="2468">
       <c r="A2468" t="inlineStr">
@@ -44671,7 +44855,11 @@
       <c r="C2468" t="n">
         <v>162.8967794744572</v>
       </c>
-      <c r="D2468" t="inlineStr"/>
+      <c r="D2468" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
     </row>
     <row r="2469">
       <c r="A2469" t="inlineStr">
@@ -44685,7 +44873,11 @@
       <c r="C2469" t="n">
         <v>164.1966851125702</v>
       </c>
-      <c r="D2469" t="inlineStr"/>
+      <c r="D2469" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
     </row>
     <row r="2470">
       <c r="A2470" t="inlineStr">
@@ -44699,7 +44891,11 @@
       <c r="C2470" t="n">
         <v>156.5819748827204</v>
       </c>
-      <c r="D2470" t="inlineStr"/>
+      <c r="D2470" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
     </row>
     <row r="2471">
       <c r="A2471" t="inlineStr">
@@ -44713,7 +44909,11 @@
       <c r="C2471" t="n">
         <v>160.5497631885537</v>
       </c>
-      <c r="D2471" t="inlineStr"/>
+      <c r="D2471" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
     </row>
     <row r="2472">
       <c r="A2472" t="inlineStr">
@@ -44727,7 +44927,11 @@
       <c r="C2472" t="n">
         <v>160.6043216975965</v>
       </c>
-      <c r="D2472" t="inlineStr"/>
+      <c r="D2472" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
     </row>
     <row r="2473">
       <c r="A2473" t="inlineStr">
@@ -44741,7 +44945,11 @@
       <c r="C2473" t="n">
         <v>156.2546810417242</v>
       </c>
-      <c r="D2473" t="inlineStr"/>
+      <c r="D2473" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
     </row>
     <row r="2474">
       <c r="A2474" t="inlineStr">
